--- a/sdr.xlsx
+++ b/sdr.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emanuele\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emanuele\workspace\SDR-emadani\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>output_1</t>
   </si>
@@ -138,13 +138,22 @@
   </si>
   <si>
     <t>90.3</t>
+  </si>
+  <si>
+    <t>Notiamo che nei file output_1 e output_3 la probabilità di detection è del 100% quindi in quei file</t>
+  </si>
+  <si>
+    <t>siamo sicuri di avere segnale utile, mentre nei file output_4 questa probabilità scende di qualche punto</t>
+  </si>
+  <si>
+    <t>percentuale non assicurandoci l'utilità di quel segnale</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +163,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -181,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -193,6 +210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -473,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E13"/>
+  <dimension ref="A2:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,6 +686,24 @@
         <v>37</v>
       </c>
     </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
